--- a/docs/StructureDefinition-PedigreeIndividual.xlsx
+++ b/docs/StructureDefinition-PedigreeIndividual.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="342">
   <si>
     <t>Path</t>
   </si>
@@ -357,14 +357,17 @@
 </t>
   </si>
   <si>
-    <t>lifeStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ga4gh-cp.github.io/pedigree-fhir-ig/StructureDefinition/patient-lifeStatus}
+    <t>unborn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ga4gh-cp.github.io/pedigree-fhir-ig/StructureDefinition/patient-unborn}
 </t>
   </si>
   <si>
-    <t>The life status of an individual as of the pedigree collection date.</t>
+    <t>Unborn</t>
+  </si>
+  <si>
+    <t>Indicates if an individual in a pedigree hasn't been born yet.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -2456,10 +2459,10 @@
         <v>109</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2542,11 +2545,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2568,16 +2571,16 @@
         <v>96</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>44</v>
@@ -2626,7 +2629,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2658,7 +2661,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2666,7 +2669,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>43</v>
@@ -2681,17 +2684,17 @@
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>44</v>
@@ -2740,7 +2743,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -2755,16 +2758,16 @@
         <v>63</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>44</v>
@@ -2772,7 +2775,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2795,70 +2798,70 @@
         <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="Q14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="Q14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2873,13 +2876,13 @@
         <v>63</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>44</v>
@@ -2890,7 +2893,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2913,19 +2916,19 @@
         <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>44</v>
@@ -2974,7 +2977,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2989,16 +2992,16 @@
         <v>63</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>44</v>
@@ -3006,7 +3009,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3029,19 +3032,19 @@
         <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -3090,7 +3093,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3105,16 +3108,16 @@
         <v>63</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>44</v>
@@ -3122,7 +3125,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3148,16 +3151,16 @@
         <v>71</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3182,13 +3185,13 @@
         <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
@@ -3206,7 +3209,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3221,16 +3224,16 @@
         <v>63</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>44</v>
@@ -3238,7 +3241,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3261,19 +3264,19 @@
         <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
@@ -3322,7 +3325,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3337,24 +3340,24 @@
         <v>63</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3365,10 +3368,10 @@
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>52</v>
@@ -3377,19 +3380,19 @@
         <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
@@ -3438,7 +3441,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3453,16 +3456,16 @@
         <v>63</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>44</v>
@@ -3470,7 +3473,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3493,19 +3496,19 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3554,7 +3557,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3569,16 +3572,16 @@
         <v>63</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>44</v>
@@ -3586,7 +3589,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3609,17 +3612,17 @@
         <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>44</v>
@@ -3644,13 +3647,13 @@
         <v>44</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>44</v>
@@ -3668,7 +3671,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3683,16 +3686,16 @@
         <v>63</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>44</v>
@@ -3700,7 +3703,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3723,19 +3726,19 @@
         <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
@@ -3784,7 +3787,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3799,16 +3802,16 @@
         <v>63</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>44</v>
@@ -3816,7 +3819,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3839,19 +3842,19 @@
         <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -3900,7 +3903,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3915,16 +3918,16 @@
         <v>63</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>44</v>
@@ -3932,7 +3935,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3955,19 +3958,19 @@
         <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -4016,7 +4019,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4028,13 +4031,13 @@
         <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>44</v>
@@ -4048,7 +4051,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4074,10 +4077,10 @@
         <v>53</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4128,7 +4131,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4143,7 +4146,7 @@
         <v>44</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>44</v>
@@ -4160,11 +4163,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4186,13 +4189,13 @@
         <v>96</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4242,7 +4245,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4257,7 +4260,7 @@
         <v>102</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>44</v>
@@ -4274,11 +4277,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4300,16 +4303,16 @@
         <v>96</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4358,7 +4361,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4390,7 +4393,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4413,17 +4416,17 @@
         <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4448,13 +4451,13 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
@@ -4472,7 +4475,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4487,16 +4490,16 @@
         <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4504,7 +4507,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4527,17 +4530,17 @@
         <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4586,7 +4589,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4601,16 +4604,16 @@
         <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4618,7 +4621,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4641,19 +4644,19 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4702,7 +4705,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4717,16 +4720,16 @@
         <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4734,7 +4737,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4757,17 +4760,17 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -4816,7 +4819,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4831,16 +4834,16 @@
         <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -4848,7 +4851,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4874,14 +4877,14 @@
         <v>71</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -4906,13 +4909,13 @@
         <v>44</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>44</v>
@@ -4930,7 +4933,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4945,16 +4948,16 @@
         <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
@@ -4962,7 +4965,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4985,17 +4988,17 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5044,7 +5047,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5053,22 +5056,22 @@
         <v>51</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5076,7 +5079,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5099,13 +5102,13 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5156,7 +5159,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5171,10 +5174,10 @@
         <v>63</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
@@ -5188,7 +5191,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5211,19 +5214,19 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5272,7 +5275,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5287,10 +5290,10 @@
         <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
@@ -5304,7 +5307,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5330,10 +5333,10 @@
         <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5384,7 +5387,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5399,7 +5402,7 @@
         <v>44</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>44</v>
@@ -5416,11 +5419,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5442,13 +5445,13 @@
         <v>96</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5498,7 +5501,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5513,7 +5516,7 @@
         <v>102</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>44</v>
@@ -5530,11 +5533,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5556,16 +5559,16 @@
         <v>96</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -5614,7 +5617,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5646,7 +5649,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5669,19 +5672,19 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -5730,7 +5733,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>51</v>
@@ -5745,16 +5748,16 @@
         <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -5762,7 +5765,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5785,19 +5788,19 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -5846,7 +5849,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5861,16 +5864,16 @@
         <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -5878,11 +5881,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5901,16 +5904,16 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5960,7 +5963,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -5975,16 +5978,16 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -5992,7 +5995,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6015,19 +6018,19 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6076,7 +6079,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6091,10 +6094,10 @@
         <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>44</v>
@@ -6108,7 +6111,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6131,19 +6134,19 @@
         <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6192,7 +6195,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6207,10 +6210,10 @@
         <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
@@ -6224,7 +6227,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6250,10 +6253,10 @@
         <v>53</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6304,7 +6307,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6319,7 +6322,7 @@
         <v>44</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>44</v>
@@ -6336,11 +6339,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6362,13 +6365,13 @@
         <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6418,7 +6421,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6433,7 +6436,7 @@
         <v>102</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>44</v>
@@ -6450,11 +6453,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6476,16 +6479,16 @@
         <v>96</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6534,7 +6537,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6566,7 +6569,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6589,16 +6592,16 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6648,7 +6651,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>51</v>
@@ -6663,16 +6666,16 @@
         <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -6680,7 +6683,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6706,10 +6709,10 @@
         <v>71</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6736,13 +6739,13 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -6760,7 +6763,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>51</v>
@@ -6775,10 +6778,10 @@
         <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
